--- a/LLA_LA_2019.xlsx
+++ b/LLA_LA_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502F628F-8117-4503-B5C6-D2F0D78DC97E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA53E197-3290-473A-BD2F-1675A3D0847F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="11520" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Games" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="11">
   <si>
     <t>Winner</t>
   </si>
@@ -519,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1544,83 +1544,111 @@
       <c r="B93" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="10">
         <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
+      <c r="A94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="10">
+        <v>-1</v>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
+      <c r="A95" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="10">
+        <v>-1</v>
+      </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
     </row>

--- a/LLA_LA_2019.xlsx
+++ b/LLA_LA_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA53E197-3290-473A-BD2F-1675A3D0847F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F081CE-4102-4400-BE67-57B579014EC3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="11520" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Games" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="11">
   <si>
     <t>Winner</t>
   </si>
@@ -520,7 +520,7 @@
   <dimension ref="A1:C262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+      <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1593,24 +1593,59 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
+      <c r="A98" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="10">
+        <v>-1</v>
+      </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
+      <c r="A99" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="10">
+        <v>-1</v>
+      </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
+      <c r="A100" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="10">
+        <v>-1</v>
+      </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
+      <c r="A101" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="10">
+        <v>-1</v>
+      </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
+      <c r="A102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="10">
+        <v>-1</v>
+      </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>

--- a/LLA_LA_2019.xlsx
+++ b/LLA_LA_2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F081CE-4102-4400-BE67-57B579014EC3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35265D61-E669-4228-99C3-24A289448B98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="11">
   <si>
     <t>Winner</t>
   </si>
@@ -187,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -230,6 +230,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="F102" sqref="F102"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1475,7 +1478,7 @@
       <c r="A87" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="10">
@@ -1486,7 +1489,7 @@
       <c r="A88" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="10">
@@ -1497,7 +1500,7 @@
       <c r="A89" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C89" s="10">
@@ -1508,7 +1511,7 @@
       <c r="A90" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="10">
@@ -1519,7 +1522,7 @@
       <c r="A91" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="10">
@@ -1530,7 +1533,7 @@
       <c r="A92" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="10">
@@ -1538,10 +1541,10 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" s="3" t="s">
+      <c r="A93" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C93" s="10">
@@ -1549,10 +1552,10 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B94" s="3" t="s">
+      <c r="A94" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C94" s="10">
@@ -1560,10 +1563,10 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B95" s="3" t="s">
+      <c r="A95" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C95" s="10">
@@ -1571,10 +1574,10 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B96" s="3" t="s">
+      <c r="A96" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C96" s="10">
@@ -1582,10 +1585,10 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B97" s="3" t="s">
+      <c r="A97" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C97" s="10">
@@ -1593,10 +1596,10 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B98" s="3" t="s">
+      <c r="A98" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C98" s="10">
@@ -1604,10 +1607,10 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B99" s="3" t="s">
+      <c r="A99" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C99" s="10">
@@ -1615,10 +1618,10 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B100" s="3" t="s">
+      <c r="A100" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C100" s="10">
@@ -1626,10 +1629,10 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B101" s="3" t="s">
+      <c r="A101" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C101" s="10">
@@ -1637,10 +1640,10 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B102" s="3" t="s">
+      <c r="A102" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C102" s="10">
@@ -1648,20 +1651,48 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
+      <c r="A103" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" s="10">
+        <v>-1</v>
+      </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
+      <c r="A104" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" s="10">
+        <v>-1</v>
+      </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
+      <c r="A105" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="13">
+        <v>-1</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
